--- a/Experiments/Hallway Size w Number of People.xlsx
+++ b/Experiments/Hallway Size w Number of People.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haoaw\Documents\School\Northwestern\2017-18_Senior\Spring2018\EECS372\Final Project\Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{575C2AA2-4092-44EB-AB8B-E4CEB7DCAAC5}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20F626D-CCA3-4737-834B-F6466AE543D8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19337" windowHeight="10089"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19337" windowHeight="10089" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hallway Size w Number of People" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId2"/>
+    <pivotCache cacheId="0" r:id="rId2"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -663,6 +663,9 @@
       <c:pivotFmt>
         <c:idx val="0"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -678,6 +681,9 @@
       <c:pivotFmt>
         <c:idx val="1"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -693,6 +699,9 @@
       <c:pivotFmt>
         <c:idx val="2"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -708,6 +717,9 @@
       <c:pivotFmt>
         <c:idx val="3"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -723,6 +735,9 @@
       <c:pivotFmt>
         <c:idx val="4"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -738,6 +753,9 @@
       <c:pivotFmt>
         <c:idx val="5"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -753,6 +771,9 @@
       <c:pivotFmt>
         <c:idx val="6"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -768,6 +789,9 @@
       <c:pivotFmt>
         <c:idx val="7"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -783,6 +807,9 @@
       <c:pivotFmt>
         <c:idx val="8"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -797,6 +824,84 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
         <c:spPr>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
@@ -2117,13 +2222,13 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>89807</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>163285</xdr:rowOff>
+      <xdr:rowOff>163284</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>508907</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>130628</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1061357</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>5443</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2152,7 +2257,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Eric Hao" refreshedDate="43260.899252199073" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="450">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Eric Hao" refreshedDate="43260.899252199073" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="450" xr:uid="{00000000-000A-0000-FFFF-FFFF07000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A7:K457" sheet="Hallway Size w Number of People"/>
   </cacheSource>
@@ -8071,7 +8176,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="M7:S18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -8169,7 +8274,7 @@
   <dataFields count="1">
     <dataField name="Average of average-time-to-evacuate" fld="10" subtotal="average" baseField="6" baseItem="6"/>
   </dataFields>
-  <chartFormats count="5">
+  <chartFormats count="10">
     <chartFormat chart="0" format="5" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -8209,6 +8314,66 @@
     <chartFormat chart="0" format="9" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
+          <reference field="5" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
           <reference field="5" count="1" selected="0">
             <x v="4"/>
           </reference>
@@ -8524,10 +8689,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S457"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J15" workbookViewId="0">
       <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
